--- a/SupportingDocs/Config_Test.xlsx
+++ b/SupportingDocs/Config_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp for analysis\Git\LocalCopyOfRemote\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80295F-7EC5-4147-89E0-75A564E94E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A7ECE8-9584-41EB-B114-480F790E2C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SUB</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Mastoid</t>
-  </si>
-  <si>
-    <t>2; 4</t>
   </si>
   <si>
     <t>[155 151 153 55 51 54 115 111 113 15 11 13]</t>
@@ -447,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:Q13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,8 +533,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -552,7 +549,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="5">
         <v>2048</v>
